--- a/BusinessRulesExcelMockup.xlsx
+++ b/BusinessRulesExcelMockup.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="300">
   <si>
     <t>R3</t>
   </si>
@@ -1618,6 +1618,9 @@
   </si>
   <si>
     <t>Create new quote version</t>
+  </si>
+  <si>
+    <t>Test Test Test</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1801,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1936,12 +1939,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1961,6 +1975,201 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1976,205 +2185,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2182,27 +2199,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 118 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2638,10 +2635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU50"/>
+  <dimension ref="A1:AU51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2660,65 +2657,65 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="10" t="s">
+      <c r="M1" s="73"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="12" t="s">
+      <c r="U1" s="75"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="10" t="s">
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="15" t="s">
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="17" t="s">
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="20" t="s">
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AU1" s="20"/>
+      <c r="AU1" s="10"/>
     </row>
     <row r="2" spans="1:47" ht="96" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2730,31 +2727,31 @@
       <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -2781,3625 +2778,3598 @@
       <c r="U2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="Z2" s="16" t="s">
         <v>35</v>
       </c>
       <c r="AA2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="27" t="s">
+      <c r="AC2" s="17" t="s">
         <v>38</v>
       </c>
       <c r="AD2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AE2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AG2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="15" t="s">
         <v>43</v>
       </c>
       <c r="AI2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AJ2" s="25" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AK2" s="25" t="s">
+      <c r="AK2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AL2" s="25" t="s">
+      <c r="AL2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="25" t="s">
+      <c r="AM2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AN2" s="28" t="s">
+      <c r="AN2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="AO2" s="28" t="s">
+      <c r="AO2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AP2" s="28" t="s">
+      <c r="AP2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="28" t="s">
+      <c r="AQ2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="AR2" s="28" t="s">
+      <c r="AR2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AS2" s="28" t="s">
+      <c r="AS2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AT2" s="29" t="s">
+      <c r="AT2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AU2" s="29" t="s">
+      <c r="AU2" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37" t="s">
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="38" t="s">
+      <c r="R3" s="27"/>
+      <c r="S3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="42"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37" t="s">
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37" t="s">
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="37"/>
-      <c r="S4" s="38" t="s">
+      <c r="R4" s="27"/>
+      <c r="S4" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37" t="s">
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="37"/>
-      <c r="S5" s="38" t="s">
+      <c r="R5" s="27"/>
+      <c r="S5" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="31"/>
+      <c r="AQ5" s="31"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="31"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37" t="s">
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="R6" s="37"/>
-      <c r="S6" s="38" t="s">
+      <c r="R6" s="27"/>
+      <c r="S6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="41"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="42"/>
-      <c r="AU6" s="42"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="31"/>
+      <c r="AQ6" s="31"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="31"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="32"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37" t="s">
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="38" t="s">
+      <c r="R7" s="27"/>
+      <c r="S7" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="40"/>
-      <c r="AM7" s="40"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AQ7" s="31"/>
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="31"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37" t="s">
+      <c r="M8" s="26"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37" t="s">
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="38" t="s">
+      <c r="R8" s="27"/>
+      <c r="S8" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
-      <c r="AL8" s="40"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="41"/>
-      <c r="AO8" s="41"/>
-      <c r="AP8" s="41"/>
-      <c r="AQ8" s="41"/>
-      <c r="AR8" s="41"/>
-      <c r="AS8" s="41"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37" t="s">
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37" t="s">
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="38" t="s">
+      <c r="R9" s="27"/>
+      <c r="S9" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="41"/>
-      <c r="AO9" s="41"/>
-      <c r="AP9" s="41"/>
-      <c r="AQ9" s="41"/>
-      <c r="AR9" s="41"/>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="42"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="L10" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37" t="s">
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37" t="s">
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="38" t="s">
+      <c r="R10" s="27"/>
+      <c r="S10" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="40"/>
-      <c r="AJ10" s="40"/>
-      <c r="AK10" s="40"/>
-      <c r="AL10" s="40"/>
-      <c r="AM10" s="40"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31"/>
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37" t="s">
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37" t="s">
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="38" t="s">
+      <c r="R11" s="27"/>
+      <c r="S11" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="40"/>
-      <c r="AK11" s="40"/>
-      <c r="AL11" s="40"/>
-      <c r="AM11" s="40"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="42"/>
-      <c r="AU11" s="42"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37" t="s">
+      <c r="M12" s="26"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37" t="s">
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="R12" s="37"/>
-      <c r="S12" s="38" t="s">
+      <c r="R12" s="27"/>
+      <c r="S12" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="40"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37" t="s">
+      <c r="M13" s="26"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37" t="s">
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="S13" s="38" t="s">
+      <c r="S13" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="40"/>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="41"/>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="42"/>
-      <c r="AU13" s="43"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="33"/>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37" t="s">
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37" t="s">
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="R14" s="37"/>
-      <c r="S14" s="38" t="s">
+      <c r="R14" s="27"/>
+      <c r="S14" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="42"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="36" t="s">
+      <c r="L15" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37" t="s">
+      <c r="M15" s="26"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37" t="s">
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="R15" s="37"/>
-      <c r="S15" s="38" t="s">
+      <c r="R15" s="27"/>
+      <c r="S15" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="41"/>
-      <c r="AQ15" s="41"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="42"/>
-      <c r="AU15" s="42"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="36" t="s">
+      <c r="L16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37" t="s">
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37" t="s">
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="R16" s="37"/>
-      <c r="S16" s="38" t="s">
+      <c r="R16" s="27"/>
+      <c r="S16" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="41"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="42"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="31"/>
+      <c r="AQ16" s="31"/>
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="31"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37" t="s">
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37" t="s">
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="R17" s="37"/>
-      <c r="S17" s="38" t="s">
+      <c r="R17" s="27"/>
+      <c r="S17" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="41"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="41"/>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="42"/>
-      <c r="AU17" s="42"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="31"/>
+      <c r="AT17" s="32"/>
+      <c r="AU17" s="32"/>
     </row>
     <row r="18" spans="1:47" ht="228" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="46" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M18" s="46" t="s">
+      <c r="M18" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="N18" s="47" t="s">
+      <c r="N18" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="47" t="s">
+      <c r="O18" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P18" s="47" t="s">
+      <c r="P18" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="Q18" s="47" t="s">
+      <c r="Q18" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="R18" s="47" t="s">
+      <c r="R18" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="S18" s="47" t="s">
+      <c r="S18" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="T18" s="46" t="s">
+      <c r="T18" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="U18" s="46" t="s">
+      <c r="U18" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46" t="s">
+      <c r="V18" s="36"/>
+      <c r="W18" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="48">
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="38">
         <v>1</v>
       </c>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="49"/>
-      <c r="AO18" s="49"/>
-      <c r="AP18" s="49"/>
-      <c r="AQ18" s="49"/>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="40"/>
+      <c r="AU18" s="40"/>
     </row>
     <row r="19" spans="1:47" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55" t="s">
+      <c r="D19" s="69"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56" t="s">
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="56" t="s">
+      <c r="M19" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="N19" s="57" t="s">
+      <c r="N19" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="O19" s="58" t="s">
+      <c r="O19" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P19" s="57" t="s">
+      <c r="P19" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="Q19" s="47" t="s">
+      <c r="Q19" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="R19" s="47" t="s">
+      <c r="R19" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="47"/>
-      <c r="T19" s="56" t="s">
+      <c r="S19" s="37"/>
+      <c r="T19" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="U19" s="56" t="s">
+      <c r="U19" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59" t="s">
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="59">
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="58">
         <v>1</v>
       </c>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="59"/>
-      <c r="AM19" s="59"/>
-      <c r="AN19" s="60"/>
-      <c r="AO19" s="60"/>
-      <c r="AP19" s="60"/>
-      <c r="AQ19" s="60"/>
-      <c r="AR19" s="60"/>
-      <c r="AS19" s="60"/>
-      <c r="AT19" s="61" t="s">
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="58"/>
+      <c r="AM19" s="58"/>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="54"/>
+      <c r="AP19" s="54"/>
+      <c r="AQ19" s="54"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
+      <c r="AT19" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="AU19" s="62"/>
+      <c r="AU19" s="42"/>
     </row>
     <row r="20" spans="1:47" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="58" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="47" t="s">
+      <c r="P20" s="57"/>
+      <c r="Q20" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="R20" s="47" t="s">
+      <c r="R20" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="S20" s="47"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="63"/>
-      <c r="AC20" s="63"/>
-      <c r="AD20" s="63"/>
-      <c r="AE20" s="63"/>
-      <c r="AF20" s="63"/>
-      <c r="AG20" s="63"/>
-      <c r="AH20" s="63"/>
-      <c r="AI20" s="63"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="63"/>
-      <c r="AL20" s="63"/>
-      <c r="AM20" s="63"/>
-      <c r="AN20" s="67"/>
-      <c r="AO20" s="67"/>
-      <c r="AP20" s="67"/>
-      <c r="AQ20" s="67"/>
-      <c r="AR20" s="67"/>
-      <c r="AS20" s="67"/>
-      <c r="AT20" s="63"/>
-      <c r="AU20" s="68"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="57"/>
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="57"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="55"/>
+      <c r="AQ20" s="55"/>
+      <c r="AR20" s="55"/>
+      <c r="AS20" s="55"/>
+      <c r="AT20" s="57"/>
+      <c r="AU20" s="43"/>
     </row>
     <row r="21" spans="1:47" ht="96" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="46" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M21" s="46" t="s">
+      <c r="M21" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="N21" s="47" t="s">
+      <c r="N21" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O21" s="47" t="s">
+      <c r="O21" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P21" s="47" t="s">
+      <c r="P21" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="Q21" s="47" t="s">
+      <c r="Q21" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R21" s="47" t="s">
+      <c r="R21" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="S21" s="47"/>
-      <c r="T21" s="46" t="s">
+      <c r="S21" s="37"/>
+      <c r="T21" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="U21" s="46" t="s">
+      <c r="U21" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="48">
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="38">
         <v>1</v>
       </c>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="48"/>
-      <c r="AN21" s="49"/>
-      <c r="AO21" s="49"/>
-      <c r="AP21" s="49"/>
-      <c r="AQ21" s="49"/>
-      <c r="AR21" s="49"/>
-      <c r="AS21" s="49"/>
-      <c r="AT21" s="50"/>
-      <c r="AU21" s="50"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39"/>
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="40"/>
     </row>
     <row r="22" spans="1:47" ht="372" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="46" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="46" t="s">
+      <c r="M22" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="N22" s="47" t="s">
+      <c r="N22" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O22" s="47" t="s">
+      <c r="O22" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P22" s="47" t="s">
+      <c r="P22" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="Q22" s="47" t="s">
+      <c r="Q22" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="R22" s="47" t="s">
+      <c r="R22" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="S22" s="47" t="s">
+      <c r="S22" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="T22" s="46" t="s">
+      <c r="T22" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="U22" s="46" t="s">
+      <c r="U22" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="48">
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="38">
         <v>1</v>
       </c>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="48"/>
-      <c r="AN22" s="49"/>
-      <c r="AO22" s="49"/>
-      <c r="AP22" s="49"/>
-      <c r="AQ22" s="49"/>
-      <c r="AR22" s="49"/>
-      <c r="AS22" s="49"/>
-      <c r="AT22" s="50"/>
-      <c r="AU22" s="50"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="40"/>
+      <c r="AU22" s="40"/>
     </row>
     <row r="23" spans="1:47" ht="72" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="46" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M23" s="46" t="s">
+      <c r="M23" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="N23" s="47" t="s">
+      <c r="N23" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O23" s="47" t="s">
+      <c r="O23" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P23" s="47" t="s">
+      <c r="P23" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="Q23" s="47" t="s">
+      <c r="Q23" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="R23" s="47" t="s">
+      <c r="R23" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="S23" s="47" t="s">
+      <c r="S23" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="T23" s="46" t="s">
+      <c r="T23" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="U23" s="46" t="s">
+      <c r="U23" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="48">
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="38">
         <v>1</v>
       </c>
-      <c r="AJ23" s="48"/>
-      <c r="AK23" s="48"/>
-      <c r="AL23" s="48"/>
-      <c r="AM23" s="48"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="49"/>
-      <c r="AP23" s="49"/>
-      <c r="AQ23" s="49"/>
-      <c r="AR23" s="49"/>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="50"/>
-      <c r="AU23" s="50"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="39"/>
+      <c r="AT23" s="40"/>
+      <c r="AU23" s="40"/>
     </row>
     <row r="24" spans="1:47" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="46" t="s">
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M24" s="46" t="s">
+      <c r="M24" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N24" s="47" t="s">
+      <c r="N24" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O24" s="47" t="s">
+      <c r="O24" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P24" s="47" t="s">
+      <c r="P24" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="Q24" s="47" t="s">
+      <c r="Q24" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="R24" s="47" t="s">
+      <c r="R24" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="S24" s="47" t="s">
+      <c r="S24" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="T24" s="46" t="s">
+      <c r="T24" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="U24" s="46" t="s">
+      <c r="U24" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="46"/>
-      <c r="AE24" s="46"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="48">
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="38">
         <v>1</v>
       </c>
-      <c r="AJ24" s="48"/>
-      <c r="AK24" s="48"/>
-      <c r="AL24" s="48"/>
-      <c r="AM24" s="48"/>
-      <c r="AN24" s="49"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="49"/>
-      <c r="AR24" s="49"/>
-      <c r="AS24" s="49"/>
-      <c r="AT24" s="50"/>
-      <c r="AU24" s="50"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="40"/>
+      <c r="AU24" s="40"/>
     </row>
     <row r="25" spans="1:47" ht="48" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="46" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="46" t="s">
+      <c r="M25" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N25" s="47" t="s">
+      <c r="N25" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O25" s="47" t="s">
+      <c r="O25" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P25" s="47" t="s">
+      <c r="P25" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="Q25" s="47" t="s">
+      <c r="Q25" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="R25" s="47" t="s">
+      <c r="R25" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="S25" s="47" t="s">
+      <c r="S25" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="T25" s="46" t="s">
+      <c r="T25" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="U25" s="46" t="s">
+      <c r="U25" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="46"/>
-      <c r="AE25" s="46"/>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="46"/>
-      <c r="AH25" s="46"/>
-      <c r="AI25" s="48">
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="38">
         <v>1</v>
       </c>
-      <c r="AJ25" s="48"/>
-      <c r="AK25" s="48"/>
-      <c r="AL25" s="48"/>
-      <c r="AM25" s="48"/>
-      <c r="AN25" s="49"/>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="50"/>
-      <c r="AU25" s="50"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="39"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="39"/>
+      <c r="AT25" s="40"/>
+      <c r="AU25" s="40"/>
     </row>
     <row r="26" spans="1:47" ht="144" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="46" t="s">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M26" s="46" t="s">
+      <c r="M26" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N26" s="47" t="s">
+      <c r="N26" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O26" s="47" t="s">
+      <c r="O26" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P26" s="47" t="s">
+      <c r="P26" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="Q26" s="47" t="s">
+      <c r="Q26" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="R26" s="47" t="s">
+      <c r="R26" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="S26" s="47"/>
-      <c r="T26" s="46" t="s">
+      <c r="S26" s="37"/>
+      <c r="T26" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="U26" s="46" t="s">
+      <c r="U26" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="48">
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
+      <c r="AF26" s="36"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="36"/>
+      <c r="AI26" s="38">
         <v>1</v>
       </c>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="49"/>
-      <c r="AO26" s="49"/>
-      <c r="AP26" s="49"/>
-      <c r="AQ26" s="49"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="49"/>
-      <c r="AT26" s="50"/>
-      <c r="AU26" s="50"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="39"/>
+      <c r="AP26" s="39"/>
+      <c r="AQ26" s="39"/>
+      <c r="AR26" s="39"/>
+      <c r="AS26" s="39"/>
+      <c r="AT26" s="40"/>
+      <c r="AU26" s="40"/>
     </row>
     <row r="27" spans="1:47" ht="108" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="46" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="46" t="s">
+      <c r="M27" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N27" s="47" t="s">
+      <c r="N27" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O27" s="47" t="s">
+      <c r="O27" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P27" s="47" t="s">
+      <c r="P27" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="Q27" s="47" t="s">
+      <c r="Q27" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="R27" s="47" t="s">
+      <c r="R27" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="S27" s="47" t="s">
+      <c r="S27" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="T27" s="46" t="s">
+      <c r="T27" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="U27" s="46" t="s">
+      <c r="U27" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="46"/>
-      <c r="AI27" s="48">
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="38">
         <v>1</v>
       </c>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="49"/>
-      <c r="AO27" s="49"/>
-      <c r="AP27" s="49"/>
-      <c r="AQ27" s="49"/>
-      <c r="AR27" s="49"/>
-      <c r="AS27" s="49"/>
-      <c r="AT27" s="50"/>
-      <c r="AU27" s="50"/>
+      <c r="AJ27" s="38"/>
+      <c r="AK27" s="38"/>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="38"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="39"/>
+      <c r="AS27" s="39"/>
+      <c r="AT27" s="40"/>
+      <c r="AU27" s="40"/>
     </row>
     <row r="28" spans="1:47" ht="84" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="46" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M28" s="46" t="s">
+      <c r="M28" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N28" s="47" t="s">
+      <c r="N28" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="47" t="s">
+      <c r="O28" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P28" s="47" t="s">
+      <c r="P28" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="Q28" s="47" t="s">
+      <c r="Q28" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="R28" s="47" t="s">
+      <c r="R28" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="S28" s="47"/>
-      <c r="T28" s="46" t="s">
+      <c r="S28" s="37"/>
+      <c r="T28" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="U28" s="46" t="s">
+      <c r="U28" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="48">
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="38">
         <v>1</v>
       </c>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="48"/>
-      <c r="AN28" s="49"/>
-      <c r="AO28" s="49"/>
-      <c r="AP28" s="49"/>
-      <c r="AQ28" s="49"/>
-      <c r="AR28" s="49"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="50"/>
-      <c r="AU28" s="50"/>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="38"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="39"/>
+      <c r="AR28" s="39"/>
+      <c r="AS28" s="39"/>
+      <c r="AT28" s="40"/>
+      <c r="AU28" s="40"/>
     </row>
     <row r="29" spans="1:47" ht="72" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="46" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M29" s="46" t="s">
+      <c r="M29" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N29" s="47" t="s">
+      <c r="N29" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O29" s="47" t="s">
+      <c r="O29" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P29" s="47" t="s">
+      <c r="P29" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="Q29" s="47" t="s">
+      <c r="Q29" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="R29" s="47" t="s">
+      <c r="R29" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="S29" s="47"/>
-      <c r="T29" s="46" t="s">
+      <c r="S29" s="37"/>
+      <c r="T29" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="U29" s="46" t="s">
+      <c r="U29" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="46"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="48">
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="38">
         <v>1</v>
       </c>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="48"/>
-      <c r="AL29" s="48"/>
-      <c r="AM29" s="48"/>
-      <c r="AN29" s="49"/>
-      <c r="AO29" s="49"/>
-      <c r="AP29" s="49"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="50"/>
-      <c r="AU29" s="50"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="38"/>
+      <c r="AL29" s="38"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="39"/>
+      <c r="AO29" s="39"/>
+      <c r="AP29" s="39"/>
+      <c r="AQ29" s="39"/>
+      <c r="AR29" s="39"/>
+      <c r="AS29" s="39"/>
+      <c r="AT29" s="40"/>
+      <c r="AU29" s="40"/>
     </row>
     <row r="30" spans="1:47" ht="84" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="46" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M30" s="46" t="s">
+      <c r="M30" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N30" s="47" t="s">
+      <c r="N30" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O30" s="47" t="s">
+      <c r="O30" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P30" s="47" t="s">
+      <c r="P30" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="Q30" s="47" t="s">
+      <c r="Q30" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="R30" s="47" t="s">
+      <c r="R30" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="S30" s="47" t="s">
+      <c r="S30" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="T30" s="46" t="s">
+      <c r="T30" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="U30" s="46" t="s">
+      <c r="U30" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="48"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="46"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="48">
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="36"/>
+      <c r="AI30" s="38">
         <v>1</v>
       </c>
-      <c r="AJ30" s="48"/>
-      <c r="AK30" s="48"/>
-      <c r="AL30" s="48"/>
-      <c r="AM30" s="48"/>
-      <c r="AN30" s="49"/>
-      <c r="AO30" s="49"/>
-      <c r="AP30" s="49"/>
-      <c r="AQ30" s="49"/>
-      <c r="AR30" s="49"/>
-      <c r="AS30" s="49"/>
-      <c r="AT30" s="50"/>
-      <c r="AU30" s="50"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="38"/>
+      <c r="AL30" s="38"/>
+      <c r="AM30" s="38"/>
+      <c r="AN30" s="39"/>
+      <c r="AO30" s="39"/>
+      <c r="AP30" s="39"/>
+      <c r="AQ30" s="39"/>
+      <c r="AR30" s="39"/>
+      <c r="AS30" s="39"/>
+      <c r="AT30" s="40"/>
+      <c r="AU30" s="40"/>
     </row>
     <row r="31" spans="1:47" ht="228" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="46" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="46" t="s">
+      <c r="M31" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N31" s="47" t="s">
+      <c r="N31" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O31" s="47" t="s">
+      <c r="O31" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P31" s="47" t="s">
+      <c r="P31" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="Q31" s="47" t="s">
+      <c r="Q31" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="R31" s="47" t="s">
+      <c r="R31" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="S31" s="47"/>
-      <c r="T31" s="46" t="s">
+      <c r="S31" s="37"/>
+      <c r="T31" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="U31" s="46" t="s">
+      <c r="U31" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="46"/>
-      <c r="AF31" s="46"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="46"/>
-      <c r="AI31" s="48">
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="36"/>
+      <c r="AI31" s="38">
         <v>1</v>
       </c>
-      <c r="AJ31" s="48"/>
-      <c r="AK31" s="48"/>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="48"/>
-      <c r="AN31" s="49"/>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="50"/>
-      <c r="AU31" s="50"/>
+      <c r="AJ31" s="38"/>
+      <c r="AK31" s="38"/>
+      <c r="AL31" s="38"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="39"/>
+      <c r="AO31" s="39"/>
+      <c r="AP31" s="39"/>
+      <c r="AQ31" s="39"/>
+      <c r="AR31" s="39"/>
+      <c r="AS31" s="39"/>
+      <c r="AT31" s="40"/>
+      <c r="AU31" s="40"/>
     </row>
     <row r="32" spans="1:47" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="46" t="s">
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M32" s="46" t="s">
+      <c r="M32" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N32" s="47" t="s">
+      <c r="N32" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="47" t="s">
+      <c r="O32" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P32" s="47" t="s">
+      <c r="P32" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="Q32" s="47" t="s">
+      <c r="Q32" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="R32" s="47" t="s">
+      <c r="R32" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="S32" s="47"/>
-      <c r="T32" s="46" t="s">
+      <c r="S32" s="37"/>
+      <c r="T32" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="U32" s="46" t="s">
+      <c r="U32" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="46"/>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="48">
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="36"/>
+      <c r="AG32" s="36"/>
+      <c r="AH32" s="36"/>
+      <c r="AI32" s="38">
         <v>2</v>
       </c>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="48"/>
-      <c r="AM32" s="48"/>
-      <c r="AN32" s="49"/>
-      <c r="AO32" s="49"/>
-      <c r="AP32" s="49"/>
-      <c r="AQ32" s="49"/>
-      <c r="AR32" s="49"/>
-      <c r="AS32" s="49"/>
-      <c r="AT32" s="50"/>
-      <c r="AU32" s="50"/>
+      <c r="AJ32" s="38"/>
+      <c r="AK32" s="38"/>
+      <c r="AL32" s="38"/>
+      <c r="AM32" s="38"/>
+      <c r="AN32" s="39"/>
+      <c r="AO32" s="39"/>
+      <c r="AP32" s="39"/>
+      <c r="AQ32" s="39"/>
+      <c r="AR32" s="39"/>
+      <c r="AS32" s="39"/>
+      <c r="AT32" s="40"/>
+      <c r="AU32" s="40"/>
     </row>
     <row r="33" spans="1:47" ht="120" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="46" t="s">
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M33" s="46" t="s">
+      <c r="M33" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N33" s="47" t="s">
+      <c r="N33" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O33" s="47" t="s">
+      <c r="O33" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P33" s="47" t="s">
+      <c r="P33" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="Q33" s="47" t="s">
+      <c r="Q33" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="R33" s="47" t="s">
+      <c r="R33" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="S33" s="47" t="s">
+      <c r="S33" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="T33" s="46" t="s">
+      <c r="T33" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="U33" s="46" t="s">
+      <c r="U33" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="46"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="48">
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="36"/>
+      <c r="AI33" s="38">
         <v>2</v>
       </c>
-      <c r="AJ33" s="48"/>
-      <c r="AK33" s="48"/>
-      <c r="AL33" s="48"/>
-      <c r="AM33" s="48"/>
-      <c r="AN33" s="49"/>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="49"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="49"/>
-      <c r="AT33" s="50"/>
-      <c r="AU33" s="50"/>
+      <c r="AJ33" s="38"/>
+      <c r="AK33" s="38"/>
+      <c r="AL33" s="38"/>
+      <c r="AM33" s="38"/>
+      <c r="AN33" s="39"/>
+      <c r="AO33" s="39"/>
+      <c r="AP33" s="39"/>
+      <c r="AQ33" s="39"/>
+      <c r="AR33" s="39"/>
+      <c r="AS33" s="39"/>
+      <c r="AT33" s="40"/>
+      <c r="AU33" s="40"/>
     </row>
     <row r="34" spans="1:47" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="46" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M34" s="46" t="s">
+      <c r="M34" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N34" s="47" t="s">
+      <c r="N34" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O34" s="47" t="s">
+      <c r="O34" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P34" s="47" t="s">
+      <c r="P34" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="Q34" s="47" t="s">
+      <c r="Q34" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="R34" s="47" t="s">
+      <c r="R34" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="S34" s="47"/>
-      <c r="T34" s="46" t="s">
+      <c r="S34" s="37"/>
+      <c r="T34" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="U34" s="46" t="s">
+      <c r="U34" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="46"/>
-      <c r="AF34" s="46"/>
-      <c r="AG34" s="46"/>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="48">
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="38">
         <v>1</v>
       </c>
-      <c r="AJ34" s="48"/>
-      <c r="AK34" s="48"/>
-      <c r="AL34" s="48"/>
-      <c r="AM34" s="48"/>
-      <c r="AN34" s="49"/>
-      <c r="AO34" s="49"/>
-      <c r="AP34" s="49"/>
-      <c r="AQ34" s="49"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="49"/>
-      <c r="AT34" s="50"/>
-      <c r="AU34" s="50"/>
+      <c r="AJ34" s="38"/>
+      <c r="AK34" s="38"/>
+      <c r="AL34" s="38"/>
+      <c r="AM34" s="38"/>
+      <c r="AN34" s="39"/>
+      <c r="AO34" s="39"/>
+      <c r="AP34" s="39"/>
+      <c r="AQ34" s="39"/>
+      <c r="AR34" s="39"/>
+      <c r="AS34" s="39"/>
+      <c r="AT34" s="40"/>
+      <c r="AU34" s="40"/>
     </row>
     <row r="35" spans="1:47" ht="120" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="46" t="s">
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M35" s="46" t="s">
+      <c r="M35" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N35" s="47" t="s">
+      <c r="N35" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O35" s="47" t="s">
+      <c r="O35" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P35" s="47" t="s">
+      <c r="P35" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="Q35" s="47" t="s">
+      <c r="Q35" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="R35" s="47" t="s">
+      <c r="R35" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="S35" s="47" t="s">
+      <c r="S35" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="T35" s="46" t="s">
+      <c r="T35" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="U35" s="46" t="s">
+      <c r="U35" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="48"/>
-      <c r="AD35" s="46"/>
-      <c r="AE35" s="46"/>
-      <c r="AF35" s="46"/>
-      <c r="AG35" s="46"/>
-      <c r="AH35" s="46"/>
-      <c r="AI35" s="48">
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="38">
         <v>1</v>
       </c>
-      <c r="AJ35" s="48"/>
-      <c r="AK35" s="48"/>
-      <c r="AL35" s="48"/>
-      <c r="AM35" s="48"/>
-      <c r="AN35" s="49"/>
-      <c r="AO35" s="49"/>
-      <c r="AP35" s="49"/>
-      <c r="AQ35" s="49"/>
-      <c r="AR35" s="49"/>
-      <c r="AS35" s="49"/>
-      <c r="AT35" s="50"/>
-      <c r="AU35" s="50"/>
+      <c r="AJ35" s="38"/>
+      <c r="AK35" s="38"/>
+      <c r="AL35" s="38"/>
+      <c r="AM35" s="38"/>
+      <c r="AN35" s="39"/>
+      <c r="AO35" s="39"/>
+      <c r="AP35" s="39"/>
+      <c r="AQ35" s="39"/>
+      <c r="AR35" s="39"/>
+      <c r="AS35" s="39"/>
+      <c r="AT35" s="40"/>
+      <c r="AU35" s="40"/>
     </row>
     <row r="36" spans="1:47" ht="288" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="46" t="s">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M36" s="46" t="s">
+      <c r="M36" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N36" s="47" t="s">
+      <c r="N36" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O36" s="47" t="s">
+      <c r="O36" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P36" s="47" t="s">
+      <c r="P36" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="Q36" s="47" t="s">
+      <c r="Q36" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="R36" s="47" t="s">
+      <c r="R36" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="S36" s="47" t="s">
+      <c r="S36" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="T36" s="46" t="s">
+      <c r="T36" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="U36" s="46" t="s">
+      <c r="U36" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="48"/>
-      <c r="AD36" s="46"/>
-      <c r="AE36" s="46"/>
-      <c r="AF36" s="46"/>
-      <c r="AG36" s="46"/>
-      <c r="AH36" s="46"/>
-      <c r="AI36" s="48">
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="38">
         <v>1</v>
       </c>
-      <c r="AJ36" s="48"/>
-      <c r="AK36" s="69" t="s">
+      <c r="AJ36" s="38"/>
+      <c r="AK36" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="AL36" s="48"/>
-      <c r="AM36" s="48"/>
-      <c r="AN36" s="49"/>
-      <c r="AO36" s="49"/>
-      <c r="AP36" s="49"/>
-      <c r="AQ36" s="49"/>
-      <c r="AR36" s="49"/>
-      <c r="AS36" s="49"/>
-      <c r="AT36" s="50"/>
-      <c r="AU36" s="50"/>
+      <c r="AL36" s="38"/>
+      <c r="AM36" s="38"/>
+      <c r="AN36" s="39"/>
+      <c r="AO36" s="39"/>
+      <c r="AP36" s="39"/>
+      <c r="AQ36" s="39"/>
+      <c r="AR36" s="39"/>
+      <c r="AS36" s="39"/>
+      <c r="AT36" s="40"/>
+      <c r="AU36" s="40"/>
     </row>
     <row r="37" spans="1:47" ht="204" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="46" t="s">
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M37" s="46" t="s">
+      <c r="M37" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N37" s="47" t="s">
+      <c r="N37" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O37" s="47" t="s">
+      <c r="O37" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P37" s="47" t="s">
+      <c r="P37" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="Q37" s="47" t="s">
+      <c r="Q37" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="R37" s="47" t="s">
+      <c r="R37" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="S37" s="47"/>
-      <c r="T37" s="46" t="s">
+      <c r="S37" s="37"/>
+      <c r="T37" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="U37" s="46" t="s">
+      <c r="U37" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="46"/>
-      <c r="AE37" s="46"/>
-      <c r="AF37" s="46"/>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="48">
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="38">
         <v>1</v>
       </c>
-      <c r="AJ37" s="48"/>
-      <c r="AK37" s="48"/>
-      <c r="AL37" s="48"/>
-      <c r="AM37" s="48"/>
-      <c r="AN37" s="49"/>
-      <c r="AO37" s="49"/>
-      <c r="AP37" s="49"/>
-      <c r="AQ37" s="49"/>
-      <c r="AR37" s="49"/>
-      <c r="AS37" s="49"/>
-      <c r="AT37" s="50"/>
-      <c r="AU37" s="50"/>
+      <c r="AJ37" s="38"/>
+      <c r="AK37" s="38"/>
+      <c r="AL37" s="38"/>
+      <c r="AM37" s="38"/>
+      <c r="AN37" s="39"/>
+      <c r="AO37" s="39"/>
+      <c r="AP37" s="39"/>
+      <c r="AQ37" s="39"/>
+      <c r="AR37" s="39"/>
+      <c r="AS37" s="39"/>
+      <c r="AT37" s="40"/>
+      <c r="AU37" s="40"/>
     </row>
     <row r="38" spans="1:47" ht="336" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="46" t="s">
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M38" s="46" t="s">
+      <c r="M38" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N38" s="47" t="s">
+      <c r="N38" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O38" s="47" t="s">
+      <c r="O38" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P38" s="47" t="s">
+      <c r="P38" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="Q38" s="47" t="s">
+      <c r="Q38" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="R38" s="47" t="s">
+      <c r="R38" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="S38" s="47"/>
-      <c r="T38" s="46" t="s">
+      <c r="S38" s="37"/>
+      <c r="T38" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="U38" s="46" t="s">
+      <c r="U38" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="39"/>
-      <c r="AA38" s="48"/>
-      <c r="AB38" s="48"/>
-      <c r="AC38" s="48"/>
-      <c r="AD38" s="46"/>
-      <c r="AE38" s="46"/>
-      <c r="AF38" s="46"/>
-      <c r="AG38" s="46"/>
-      <c r="AH38" s="46"/>
-      <c r="AI38" s="48">
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="38">
         <v>1</v>
       </c>
-      <c r="AJ38" s="48"/>
-      <c r="AK38" s="48"/>
-      <c r="AL38" s="48"/>
-      <c r="AM38" s="48"/>
-      <c r="AN38" s="49"/>
-      <c r="AO38" s="49"/>
-      <c r="AP38" s="49"/>
-      <c r="AQ38" s="49"/>
-      <c r="AR38" s="49"/>
-      <c r="AS38" s="49"/>
-      <c r="AT38" s="50"/>
-      <c r="AU38" s="50"/>
+      <c r="AJ38" s="38"/>
+      <c r="AK38" s="38"/>
+      <c r="AL38" s="38"/>
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="39"/>
+      <c r="AO38" s="39"/>
+      <c r="AP38" s="39"/>
+      <c r="AQ38" s="39"/>
+      <c r="AR38" s="39"/>
+      <c r="AS38" s="39"/>
+      <c r="AT38" s="40"/>
+      <c r="AU38" s="40"/>
     </row>
     <row r="39" spans="1:47" ht="144" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="46" t="s">
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M39" s="46" t="s">
+      <c r="M39" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N39" s="47" t="s">
+      <c r="N39" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O39" s="47" t="s">
+      <c r="O39" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P39" s="47" t="s">
+      <c r="P39" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="Q39" s="47" t="s">
+      <c r="Q39" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="R39" s="47" t="s">
+      <c r="R39" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="S39" s="47" t="s">
+      <c r="S39" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="T39" s="46" t="s">
+      <c r="T39" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="U39" s="46" t="s">
+      <c r="U39" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="V39" s="46"/>
-      <c r="W39" s="46"/>
-      <c r="X39" s="46"/>
-      <c r="Y39" s="46"/>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="48"/>
-      <c r="AB39" s="48"/>
-      <c r="AC39" s="48"/>
-      <c r="AD39" s="46"/>
-      <c r="AE39" s="46"/>
-      <c r="AF39" s="46"/>
-      <c r="AG39" s="46"/>
-      <c r="AH39" s="46"/>
-      <c r="AI39" s="48">
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="38">
         <v>1</v>
       </c>
-      <c r="AJ39" s="48"/>
-      <c r="AK39" s="48"/>
-      <c r="AL39" s="48"/>
-      <c r="AM39" s="48"/>
-      <c r="AN39" s="49"/>
-      <c r="AO39" s="49"/>
-      <c r="AP39" s="49"/>
-      <c r="AQ39" s="49"/>
-      <c r="AR39" s="49"/>
-      <c r="AS39" s="49"/>
-      <c r="AT39" s="50"/>
-      <c r="AU39" s="50"/>
+      <c r="AJ39" s="38"/>
+      <c r="AK39" s="38"/>
+      <c r="AL39" s="38"/>
+      <c r="AM39" s="38"/>
+      <c r="AN39" s="39"/>
+      <c r="AO39" s="39"/>
+      <c r="AP39" s="39"/>
+      <c r="AQ39" s="39"/>
+      <c r="AR39" s="39"/>
+      <c r="AS39" s="39"/>
+      <c r="AT39" s="40"/>
+      <c r="AU39" s="40"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="36" t="s">
+      <c r="D40" s="47"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="M40" s="36" t="s">
+      <c r="M40" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="N40" s="37" t="s">
+      <c r="N40" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="O40" s="37" t="s">
+      <c r="O40" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="P40" s="37" t="s">
+      <c r="P40" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="Q40" s="37" t="s">
+      <c r="Q40" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="R40" s="37" t="s">
+      <c r="R40" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="S40" s="38" t="s">
+      <c r="S40" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="T40" s="36" t="s">
+      <c r="T40" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="U40" s="36" t="s">
+      <c r="U40" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="39"/>
-      <c r="AA40" s="73"/>
-      <c r="AB40" s="73"/>
-      <c r="AC40" s="73"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="36"/>
-      <c r="AI40" s="73">
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="48"/>
+      <c r="AB40" s="48"/>
+      <c r="AC40" s="48"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="48">
         <v>1</v>
       </c>
-      <c r="AJ40" s="73"/>
-      <c r="AK40" s="73"/>
-      <c r="AL40" s="73"/>
-      <c r="AM40" s="73"/>
-      <c r="AN40" s="74"/>
-      <c r="AO40" s="41"/>
-      <c r="AP40" s="41"/>
-      <c r="AQ40" s="41"/>
-      <c r="AR40" s="41"/>
-      <c r="AS40" s="41"/>
-      <c r="AT40" s="42"/>
-      <c r="AU40" s="42"/>
+      <c r="AJ40" s="48"/>
+      <c r="AK40" s="48"/>
+      <c r="AL40" s="48"/>
+      <c r="AM40" s="48"/>
+      <c r="AN40" s="49"/>
+      <c r="AO40" s="31"/>
+      <c r="AP40" s="31"/>
+      <c r="AQ40" s="31"/>
+      <c r="AR40" s="31"/>
+      <c r="AS40" s="31"/>
+      <c r="AT40" s="32"/>
+      <c r="AU40" s="32"/>
     </row>
     <row r="41" spans="1:47" ht="144" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="46" t="s">
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M41" s="46" t="s">
+      <c r="M41" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N41" s="47" t="s">
+      <c r="N41" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O41" s="47" t="s">
+      <c r="O41" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P41" s="47" t="s">
+      <c r="P41" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="Q41" s="47" t="s">
+      <c r="Q41" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="R41" s="47" t="s">
+      <c r="R41" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="S41" s="47" t="s">
+      <c r="S41" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="T41" s="46" t="s">
+      <c r="T41" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="U41" s="46" t="s">
+      <c r="U41" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="V41" s="46"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="48"/>
-      <c r="AB41" s="48"/>
-      <c r="AC41" s="48"/>
-      <c r="AD41" s="46"/>
-      <c r="AE41" s="46"/>
-      <c r="AF41" s="46"/>
-      <c r="AG41" s="46"/>
-      <c r="AH41" s="46"/>
-      <c r="AI41" s="48">
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="36"/>
+      <c r="AH41" s="36"/>
+      <c r="AI41" s="38">
         <v>1</v>
       </c>
-      <c r="AJ41" s="48"/>
-      <c r="AK41" s="48"/>
-      <c r="AL41" s="48"/>
-      <c r="AM41" s="48"/>
-      <c r="AN41" s="49"/>
-      <c r="AO41" s="49"/>
-      <c r="AP41" s="49"/>
-      <c r="AQ41" s="49"/>
-      <c r="AR41" s="49"/>
-      <c r="AS41" s="49"/>
-      <c r="AT41" s="50"/>
-      <c r="AU41" s="50"/>
+      <c r="AJ41" s="38"/>
+      <c r="AK41" s="38"/>
+      <c r="AL41" s="38"/>
+      <c r="AM41" s="38"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="39"/>
+      <c r="AP41" s="39"/>
+      <c r="AQ41" s="39"/>
+      <c r="AR41" s="39"/>
+      <c r="AS41" s="39"/>
+      <c r="AT41" s="40"/>
+      <c r="AU41" s="40"/>
     </row>
     <row r="42" spans="1:47" ht="396" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="G42" s="75">
+      <c r="G42" s="50">
         <v>43070</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="46" t="s">
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M42" s="46" t="s">
+      <c r="M42" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N42" s="47" t="s">
+      <c r="N42" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O42" s="47" t="s">
+      <c r="O42" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P42" s="47" t="s">
+      <c r="P42" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="Q42" s="47" t="s">
+      <c r="Q42" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="R42" s="47" t="s">
+      <c r="R42" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="S42" s="76" t="s">
+      <c r="S42" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="T42" s="46" t="s">
+      <c r="T42" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="U42" s="46" t="s">
+      <c r="U42" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="39"/>
-      <c r="AA42" s="48"/>
-      <c r="AB42" s="48"/>
-      <c r="AC42" s="48"/>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="46"/>
-      <c r="AF42" s="46"/>
-      <c r="AG42" s="46"/>
-      <c r="AH42" s="46"/>
-      <c r="AI42" s="48">
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
+      <c r="AH42" s="36"/>
+      <c r="AI42" s="38">
         <v>1</v>
       </c>
-      <c r="AJ42" s="48"/>
-      <c r="AK42" s="48"/>
-      <c r="AL42" s="48"/>
-      <c r="AM42" s="48"/>
-      <c r="AN42" s="49"/>
-      <c r="AO42" s="49"/>
-      <c r="AP42" s="49"/>
-      <c r="AQ42" s="49"/>
-      <c r="AR42" s="49"/>
-      <c r="AS42" s="49"/>
-      <c r="AT42" s="50"/>
-      <c r="AU42" s="50"/>
+      <c r="AJ42" s="38"/>
+      <c r="AK42" s="38"/>
+      <c r="AL42" s="38"/>
+      <c r="AM42" s="38"/>
+      <c r="AN42" s="39"/>
+      <c r="AO42" s="39"/>
+      <c r="AP42" s="39"/>
+      <c r="AQ42" s="39"/>
+      <c r="AR42" s="39"/>
+      <c r="AS42" s="39"/>
+      <c r="AT42" s="40"/>
+      <c r="AU42" s="40"/>
     </row>
     <row r="43" spans="1:47" ht="348" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="46" t="s">
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M43" s="46" t="s">
+      <c r="M43" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N43" s="47" t="s">
+      <c r="N43" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O43" s="47" t="s">
+      <c r="O43" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P43" s="47" t="s">
+      <c r="P43" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="Q43" s="47" t="s">
+      <c r="Q43" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="R43" s="77" t="s">
+      <c r="R43" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="S43" s="47"/>
-      <c r="T43" s="46" t="s">
+      <c r="S43" s="37"/>
+      <c r="T43" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="U43" s="46" t="s">
+      <c r="U43" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="46"/>
-      <c r="Z43" s="39"/>
-      <c r="AA43" s="48"/>
-      <c r="AB43" s="48"/>
-      <c r="AC43" s="48"/>
-      <c r="AD43" s="46"/>
-      <c r="AE43" s="46"/>
-      <c r="AF43" s="46"/>
-      <c r="AG43" s="46"/>
-      <c r="AH43" s="46"/>
-      <c r="AI43" s="48">
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="38"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="36"/>
+      <c r="AH43" s="36"/>
+      <c r="AI43" s="38">
         <v>1</v>
       </c>
-      <c r="AJ43" s="48"/>
-      <c r="AK43" s="48"/>
-      <c r="AL43" s="48"/>
-      <c r="AM43" s="48"/>
-      <c r="AN43" s="49"/>
-      <c r="AO43" s="49"/>
-      <c r="AP43" s="49"/>
-      <c r="AQ43" s="49"/>
-      <c r="AR43" s="49"/>
-      <c r="AS43" s="49"/>
-      <c r="AT43" s="50"/>
-      <c r="AU43" s="50"/>
+      <c r="AJ43" s="38"/>
+      <c r="AK43" s="38"/>
+      <c r="AL43" s="38"/>
+      <c r="AM43" s="38"/>
+      <c r="AN43" s="39"/>
+      <c r="AO43" s="39"/>
+      <c r="AP43" s="39"/>
+      <c r="AQ43" s="39"/>
+      <c r="AR43" s="39"/>
+      <c r="AS43" s="39"/>
+      <c r="AT43" s="40"/>
+      <c r="AU43" s="40"/>
     </row>
     <row r="44" spans="1:47" ht="204" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27" t="s">
+      <c r="E44" s="17"/>
+      <c r="F44" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="46" t="s">
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M44" s="46" t="s">
+      <c r="M44" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N44" s="47" t="s">
+      <c r="N44" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O44" s="47" t="s">
+      <c r="O44" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P44" s="47" t="s">
+      <c r="P44" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="Q44" s="47" t="s">
+      <c r="Q44" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="R44" s="47" t="s">
+      <c r="R44" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="S44" s="47" t="s">
+      <c r="S44" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="T44" s="46" t="s">
+      <c r="T44" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="U44" s="46" t="s">
+      <c r="U44" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="46" t="s">
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="Z44" s="39"/>
-      <c r="AA44" s="48"/>
-      <c r="AB44" s="48"/>
-      <c r="AC44" s="48"/>
-      <c r="AD44" s="46"/>
-      <c r="AE44" s="46"/>
-      <c r="AF44" s="46"/>
-      <c r="AG44" s="46"/>
-      <c r="AH44" s="46"/>
-      <c r="AI44" s="48">
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="38"/>
+      <c r="AB44" s="38"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="36"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="38">
         <v>1</v>
       </c>
-      <c r="AJ44" s="48"/>
-      <c r="AK44" s="48"/>
-      <c r="AL44" s="48"/>
-      <c r="AM44" s="48"/>
-      <c r="AN44" s="49" t="s">
+      <c r="AJ44" s="38"/>
+      <c r="AK44" s="38"/>
+      <c r="AL44" s="38"/>
+      <c r="AM44" s="38"/>
+      <c r="AN44" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="AO44" s="49"/>
-      <c r="AP44" s="49" t="s">
+      <c r="AO44" s="39"/>
+      <c r="AP44" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="AQ44" s="49"/>
-      <c r="AR44" s="49"/>
-      <c r="AS44" s="49"/>
-      <c r="AT44" s="50" t="s">
+      <c r="AQ44" s="39"/>
+      <c r="AR44" s="39"/>
+      <c r="AS44" s="39"/>
+      <c r="AT44" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="AU44" s="50"/>
+      <c r="AU44" s="40"/>
     </row>
     <row r="45" spans="1:47" ht="216" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="46" t="s">
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M45" s="46" t="s">
+      <c r="M45" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N45" s="47" t="s">
+      <c r="N45" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O45" s="47" t="s">
+      <c r="O45" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P45" s="47" t="s">
+      <c r="P45" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="Q45" s="47" t="s">
+      <c r="Q45" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="R45" s="47" t="s">
+      <c r="R45" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="S45" s="47" t="s">
+      <c r="S45" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="T45" s="46" t="s">
+      <c r="T45" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="U45" s="46" t="s">
+      <c r="U45" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="46"/>
-      <c r="Y45" s="46"/>
-      <c r="Z45" s="39"/>
-      <c r="AA45" s="48"/>
-      <c r="AB45" s="48"/>
-      <c r="AC45" s="48"/>
-      <c r="AD45" s="46"/>
-      <c r="AE45" s="46"/>
-      <c r="AF45" s="46"/>
-      <c r="AG45" s="46"/>
-      <c r="AH45" s="46"/>
-      <c r="AI45" s="48">
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="38"/>
+      <c r="AB45" s="38"/>
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="36"/>
+      <c r="AG45" s="36"/>
+      <c r="AH45" s="36"/>
+      <c r="AI45" s="38">
         <v>1</v>
       </c>
-      <c r="AJ45" s="48"/>
-      <c r="AK45" s="48"/>
-      <c r="AL45" s="48"/>
-      <c r="AM45" s="48"/>
-      <c r="AN45" s="49"/>
-      <c r="AO45" s="49"/>
-      <c r="AP45" s="49"/>
-      <c r="AQ45" s="49"/>
-      <c r="AR45" s="49"/>
-      <c r="AS45" s="49"/>
-      <c r="AT45" s="50"/>
-      <c r="AU45" s="50"/>
+      <c r="AJ45" s="38"/>
+      <c r="AK45" s="38"/>
+      <c r="AL45" s="38"/>
+      <c r="AM45" s="38"/>
+      <c r="AN45" s="39"/>
+      <c r="AO45" s="39"/>
+      <c r="AP45" s="39"/>
+      <c r="AQ45" s="39"/>
+      <c r="AR45" s="39"/>
+      <c r="AS45" s="39"/>
+      <c r="AT45" s="40"/>
+      <c r="AU45" s="40"/>
     </row>
     <row r="46" spans="1:47" ht="132" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="46" t="s">
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M46" s="46" t="s">
+      <c r="M46" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="N46" s="47" t="s">
+      <c r="N46" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O46" s="47" t="s">
+      <c r="O46" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P46" s="47" t="s">
+      <c r="P46" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="Q46" s="47" t="s">
+      <c r="Q46" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="R46" s="47" t="s">
+      <c r="R46" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="S46" s="47"/>
-      <c r="T46" s="46" t="s">
+      <c r="S46" s="37"/>
+      <c r="T46" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="U46" s="46" t="s">
+      <c r="U46" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="46"/>
-      <c r="Z46" s="39"/>
-      <c r="AA46" s="48"/>
-      <c r="AB46" s="48"/>
-      <c r="AC46" s="48"/>
-      <c r="AD46" s="46"/>
-      <c r="AE46" s="46"/>
-      <c r="AF46" s="46"/>
-      <c r="AG46" s="46"/>
-      <c r="AH46" s="46"/>
-      <c r="AI46" s="48">
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="38"/>
+      <c r="AB46" s="38"/>
+      <c r="AC46" s="38"/>
+      <c r="AD46" s="36"/>
+      <c r="AE46" s="36"/>
+      <c r="AF46" s="36"/>
+      <c r="AG46" s="36"/>
+      <c r="AH46" s="36"/>
+      <c r="AI46" s="38">
         <v>1</v>
       </c>
-      <c r="AJ46" s="48"/>
-      <c r="AK46" s="48"/>
-      <c r="AL46" s="48"/>
-      <c r="AM46" s="48"/>
-      <c r="AN46" s="49"/>
-      <c r="AO46" s="49"/>
-      <c r="AP46" s="49"/>
-      <c r="AQ46" s="49"/>
-      <c r="AR46" s="49"/>
-      <c r="AS46" s="49"/>
-      <c r="AT46" s="50"/>
-      <c r="AU46" s="78"/>
+      <c r="AJ46" s="38"/>
+      <c r="AK46" s="38"/>
+      <c r="AL46" s="38"/>
+      <c r="AM46" s="38"/>
+      <c r="AN46" s="39"/>
+      <c r="AO46" s="39"/>
+      <c r="AP46" s="39"/>
+      <c r="AQ46" s="39"/>
+      <c r="AR46" s="39"/>
+      <c r="AS46" s="39"/>
+      <c r="AT46" s="40"/>
+      <c r="AU46" s="53"/>
     </row>
     <row r="47" spans="1:47" ht="108" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="46" t="s">
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M47" s="46" t="s">
+      <c r="M47" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="N47" s="47" t="s">
+      <c r="N47" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O47" s="47" t="s">
+      <c r="O47" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P47" s="47" t="s">
+      <c r="P47" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="Q47" s="47" t="s">
+      <c r="Q47" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="R47" s="47" t="s">
+      <c r="R47" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="S47" s="47"/>
-      <c r="T47" s="46" t="s">
+      <c r="S47" s="37"/>
+      <c r="T47" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="U47" s="46" t="s">
+      <c r="U47" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46" t="s">
+      <c r="V47" s="36"/>
+      <c r="W47" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="X47" s="46"/>
-      <c r="Y47" s="46"/>
-      <c r="Z47" s="39"/>
-      <c r="AA47" s="48"/>
-      <c r="AB47" s="48"/>
-      <c r="AC47" s="48"/>
-      <c r="AD47" s="46"/>
-      <c r="AE47" s="46"/>
-      <c r="AF47" s="46"/>
-      <c r="AG47" s="46"/>
-      <c r="AH47" s="46"/>
-      <c r="AI47" s="48">
+      <c r="X47" s="36"/>
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="38"/>
+      <c r="AB47" s="38"/>
+      <c r="AC47" s="38"/>
+      <c r="AD47" s="36"/>
+      <c r="AE47" s="36"/>
+      <c r="AF47" s="36"/>
+      <c r="AG47" s="36"/>
+      <c r="AH47" s="36"/>
+      <c r="AI47" s="38">
         <v>1</v>
       </c>
-      <c r="AJ47" s="48"/>
-      <c r="AK47" s="48"/>
-      <c r="AL47" s="48"/>
-      <c r="AM47" s="48"/>
-      <c r="AN47" s="49"/>
-      <c r="AO47" s="49"/>
-      <c r="AP47" s="49"/>
-      <c r="AQ47" s="49"/>
-      <c r="AR47" s="49"/>
-      <c r="AS47" s="49"/>
-      <c r="AT47" s="50"/>
-      <c r="AU47" s="78"/>
+      <c r="AJ47" s="38"/>
+      <c r="AK47" s="38"/>
+      <c r="AL47" s="38"/>
+      <c r="AM47" s="38"/>
+      <c r="AN47" s="39"/>
+      <c r="AO47" s="39"/>
+      <c r="AP47" s="39"/>
+      <c r="AQ47" s="39"/>
+      <c r="AR47" s="39"/>
+      <c r="AS47" s="39"/>
+      <c r="AT47" s="40"/>
+      <c r="AU47" s="53"/>
     </row>
     <row r="48" spans="1:47" ht="108" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="46" t="s">
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M48" s="46" t="s">
+      <c r="M48" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="N48" s="47" t="s">
+      <c r="N48" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O48" s="47" t="s">
+      <c r="O48" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P48" s="47" t="s">
+      <c r="P48" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="Q48" s="47" t="s">
+      <c r="Q48" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="R48" s="47" t="s">
+      <c r="R48" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="S48" s="47"/>
-      <c r="T48" s="46" t="s">
+      <c r="S48" s="37"/>
+      <c r="T48" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="U48" s="46" t="s">
+      <c r="U48" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46"/>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="39"/>
-      <c r="AA48" s="48"/>
-      <c r="AB48" s="48"/>
-      <c r="AC48" s="48"/>
-      <c r="AD48" s="46"/>
-      <c r="AE48" s="46"/>
-      <c r="AF48" s="46"/>
-      <c r="AG48" s="46"/>
-      <c r="AH48" s="46"/>
-      <c r="AI48" s="48">
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="38"/>
+      <c r="AB48" s="38"/>
+      <c r="AC48" s="38"/>
+      <c r="AD48" s="36"/>
+      <c r="AE48" s="36"/>
+      <c r="AF48" s="36"/>
+      <c r="AG48" s="36"/>
+      <c r="AH48" s="36"/>
+      <c r="AI48" s="38">
         <v>1</v>
       </c>
-      <c r="AJ48" s="48"/>
-      <c r="AK48" s="48"/>
-      <c r="AL48" s="48"/>
-      <c r="AM48" s="48"/>
-      <c r="AN48" s="49"/>
-      <c r="AO48" s="49"/>
-      <c r="AP48" s="49"/>
-      <c r="AQ48" s="49"/>
-      <c r="AR48" s="49"/>
-      <c r="AS48" s="49"/>
-      <c r="AT48" s="50"/>
-      <c r="AU48" s="50"/>
+      <c r="AJ48" s="38"/>
+      <c r="AK48" s="38"/>
+      <c r="AL48" s="38"/>
+      <c r="AM48" s="38"/>
+      <c r="AN48" s="39"/>
+      <c r="AO48" s="39"/>
+      <c r="AP48" s="39"/>
+      <c r="AQ48" s="39"/>
+      <c r="AR48" s="39"/>
+      <c r="AS48" s="39"/>
+      <c r="AT48" s="40"/>
+      <c r="AU48" s="40"/>
     </row>
     <row r="49" spans="1:47" ht="168" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="46" t="s">
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M49" s="46" t="s">
+      <c r="M49" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="N49" s="47" t="s">
+      <c r="N49" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O49" s="47" t="s">
+      <c r="O49" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P49" s="47" t="s">
+      <c r="P49" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="Q49" s="47" t="s">
+      <c r="Q49" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="R49" s="47" t="s">
+      <c r="R49" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="S49" s="47"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46"/>
-      <c r="Y49" s="46"/>
-      <c r="Z49" s="39"/>
-      <c r="AA49" s="48"/>
-      <c r="AB49" s="48"/>
-      <c r="AC49" s="48"/>
-      <c r="AD49" s="46"/>
-      <c r="AE49" s="46"/>
-      <c r="AF49" s="46"/>
-      <c r="AG49" s="46"/>
-      <c r="AH49" s="46"/>
-      <c r="AI49" s="48">
+      <c r="S49" s="37"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="36"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="38"/>
+      <c r="AB49" s="38"/>
+      <c r="AC49" s="38"/>
+      <c r="AD49" s="36"/>
+      <c r="AE49" s="36"/>
+      <c r="AF49" s="36"/>
+      <c r="AG49" s="36"/>
+      <c r="AH49" s="36"/>
+      <c r="AI49" s="38">
         <v>1</v>
       </c>
-      <c r="AJ49" s="48"/>
-      <c r="AK49" s="48"/>
-      <c r="AL49" s="48"/>
-      <c r="AM49" s="48"/>
-      <c r="AN49" s="49"/>
-      <c r="AO49" s="49"/>
-      <c r="AP49" s="49"/>
-      <c r="AQ49" s="49"/>
-      <c r="AR49" s="49"/>
-      <c r="AS49" s="49"/>
-      <c r="AT49" s="50"/>
-      <c r="AU49" s="50"/>
+      <c r="AJ49" s="38"/>
+      <c r="AK49" s="38"/>
+      <c r="AL49" s="38"/>
+      <c r="AM49" s="38"/>
+      <c r="AN49" s="39"/>
+      <c r="AO49" s="39"/>
+      <c r="AP49" s="39"/>
+      <c r="AQ49" s="39"/>
+      <c r="AR49" s="39"/>
+      <c r="AS49" s="39"/>
+      <c r="AT49" s="40"/>
+      <c r="AU49" s="40"/>
     </row>
     <row r="50" spans="1:47" ht="84" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="46" t="s">
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="M50" s="46" t="s">
+      <c r="M50" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="47" t="s">
+      <c r="N50" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O50" s="47" t="s">
+      <c r="O50" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="P50" s="47" t="s">
+      <c r="P50" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="Q50" s="47" t="s">
+      <c r="Q50" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="R50" s="47" t="s">
+      <c r="R50" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="S50" s="47"/>
-      <c r="T50" s="46" t="s">
+      <c r="S50" s="37"/>
+      <c r="T50" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="U50" s="46" t="s">
+      <c r="U50" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="46"/>
-      <c r="Z50" s="39"/>
-      <c r="AA50" s="48"/>
-      <c r="AB50" s="48"/>
-      <c r="AC50" s="48"/>
-      <c r="AD50" s="46"/>
-      <c r="AE50" s="46"/>
-      <c r="AF50" s="46"/>
-      <c r="AG50" s="46"/>
-      <c r="AH50" s="46"/>
-      <c r="AI50" s="48">
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="36"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="38"/>
+      <c r="AD50" s="36"/>
+      <c r="AE50" s="36"/>
+      <c r="AF50" s="36"/>
+      <c r="AG50" s="36"/>
+      <c r="AH50" s="36"/>
+      <c r="AI50" s="38">
         <v>1</v>
       </c>
-      <c r="AJ50" s="48"/>
-      <c r="AK50" s="48"/>
-      <c r="AL50" s="48"/>
-      <c r="AM50" s="48"/>
-      <c r="AN50" s="49"/>
-      <c r="AO50" s="49"/>
-      <c r="AP50" s="49"/>
-      <c r="AQ50" s="49"/>
-      <c r="AR50" s="49"/>
-      <c r="AS50" s="49"/>
-      <c r="AT50" s="50"/>
-      <c r="AU50" s="50"/>
+      <c r="AJ50" s="38"/>
+      <c r="AK50" s="38"/>
+      <c r="AL50" s="38"/>
+      <c r="AM50" s="38"/>
+      <c r="AN50" s="39"/>
+      <c r="AO50" s="39"/>
+      <c r="AP50" s="39"/>
+      <c r="AQ50" s="39"/>
+      <c r="AR50" s="39"/>
+      <c r="AS50" s="39"/>
+      <c r="AT50" s="40"/>
+      <c r="AU50" s="40"/>
+    </row>
+    <row r="51" spans="1:47" ht="24" x14ac:dyDescent="0.25">
+      <c r="A51" s="79" t="s">
+        <v>299</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="AS19:AS20"/>
-    <mergeCell ref="AT19:AT20"/>
-    <mergeCell ref="AM19:AM20"/>
-    <mergeCell ref="AN19:AN20"/>
-    <mergeCell ref="AO19:AO20"/>
-    <mergeCell ref="AP19:AP20"/>
-    <mergeCell ref="AQ19:AQ20"/>
-    <mergeCell ref="AR19:AR20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AI19:AI20"/>
-    <mergeCell ref="AJ19:AJ20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="AL19:AL20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="P19:P20"/>
     <mergeCell ref="AN1:AS1"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -6416,14 +6386,46 @@
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AH1"/>
     <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="AL19:AL20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AI19:AI20"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="AS19:AS20"/>
+    <mergeCell ref="AT19:AT20"/>
+    <mergeCell ref="AM19:AM20"/>
+    <mergeCell ref="AN19:AN20"/>
+    <mergeCell ref="AO19:AO20"/>
+    <mergeCell ref="AP19:AP20"/>
+    <mergeCell ref="AQ19:AQ20"/>
+    <mergeCell ref="AR19:AR20"/>
   </mergeCells>
   <conditionalFormatting sqref="B1 B3:B18 B21:B50">
-    <cfRule type="timePeriod" dxfId="3" priority="2" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="yesterday">
       <formula>FLOOR(B1,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="yesterday">
       <formula>FLOOR(B19,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6516,7 +6518,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F30ABCD6-6771-418D-ABE5-05214296605E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F6AF4C4-21D6-4824-AE27-5EFF5C610D9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/BusinessRulesExcelMockup.xlsx
+++ b/BusinessRulesExcelMockup.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="301">
   <si>
     <t>R3</t>
   </si>
@@ -1620,7 +1620,10 @@
     <t>Create new quote version</t>
   </si>
   <si>
-    <t>Test Test Test</t>
+    <t>Swindell J</t>
+  </si>
+  <si>
+    <t>BR_0033</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +1958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2116,6 +2119,75 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2125,73 +2197,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2199,7 +2208,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 118 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2638,7 +2657,7 @@
   <dimension ref="A1:AU51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,22 +2676,22 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="72" t="s">
+      <c r="L1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="75" t="s">
+      <c r="M1" s="67"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="75"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="75"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="69"/>
       <c r="X1" s="7" t="s">
         <v>3</v>
       </c>
@@ -2682,33 +2701,33 @@
       <c r="Z1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="77" t="s">
+      <c r="AA1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="75" t="s">
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="77" t="s">
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="63" t="s">
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="65"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="57"/>
       <c r="AT1" s="10" t="s">
         <v>10</v>
       </c>
@@ -3914,38 +3933,38 @@
       <c r="AU18" s="40"/>
     </row>
     <row r="19" spans="1:47" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60" t="s">
+      <c r="D19" s="62"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="59" t="s">
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="59" t="s">
+      <c r="M19" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="N19" s="62" t="s">
+      <c r="N19" s="75" t="s">
         <v>120</v>
       </c>
       <c r="O19" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P19" s="62" t="s">
+      <c r="P19" s="75" t="s">
         <v>121</v>
       </c>
       <c r="Q19" s="37" t="s">
@@ -3955,64 +3974,64 @@
         <v>123</v>
       </c>
       <c r="S19" s="37"/>
-      <c r="T19" s="59" t="s">
+      <c r="T19" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="U19" s="59" t="s">
+      <c r="U19" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
       <c r="Z19" s="29"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58" t="s">
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="58">
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="73"/>
+      <c r="AI19" s="76">
         <v>1</v>
       </c>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="58"/>
-      <c r="AM19" s="58"/>
-      <c r="AN19" s="54"/>
-      <c r="AO19" s="54"/>
-      <c r="AP19" s="54"/>
-      <c r="AQ19" s="54"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
-      <c r="AT19" s="56" t="s">
+      <c r="AJ19" s="76"/>
+      <c r="AK19" s="76"/>
+      <c r="AL19" s="76"/>
+      <c r="AM19" s="76"/>
+      <c r="AN19" s="77"/>
+      <c r="AO19" s="77"/>
+      <c r="AP19" s="77"/>
+      <c r="AQ19" s="77"/>
+      <c r="AR19" s="77"/>
+      <c r="AS19" s="77"/>
+      <c r="AT19" s="79" t="s">
         <v>126</v>
       </c>
       <c r="AU19" s="42"/>
     </row>
     <row r="20" spans="1:47" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
       <c r="O20" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P20" s="57"/>
+      <c r="P20" s="59"/>
       <c r="Q20" s="37" t="s">
         <v>127</v>
       </c>
@@ -4020,33 +4039,33 @@
         <v>128</v>
       </c>
       <c r="S20" s="37"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
       <c r="Z20" s="29"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="57"/>
-      <c r="AM20" s="57"/>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="55"/>
-      <c r="AP20" s="55"/>
-      <c r="AQ20" s="55"/>
-      <c r="AR20" s="55"/>
-      <c r="AS20" s="55"/>
-      <c r="AT20" s="57"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="59"/>
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="78"/>
+      <c r="AO20" s="78"/>
+      <c r="AP20" s="78"/>
+      <c r="AQ20" s="78"/>
+      <c r="AR20" s="78"/>
+      <c r="AS20" s="78"/>
+      <c r="AT20" s="59"/>
       <c r="AU20" s="43"/>
     </row>
     <row r="21" spans="1:47" ht="96" x14ac:dyDescent="0.25">
@@ -6363,13 +6382,51 @@
       <c r="AT50" s="40"/>
       <c r="AU50" s="40"/>
     </row>
-    <row r="51" spans="1:47" ht="24" x14ac:dyDescent="0.25">
-      <c r="A51" s="79" t="s">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A51" s="54" t="s">
         <v>299</v>
+      </c>
+      <c r="B51" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" s="81" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="AS19:AS20"/>
+    <mergeCell ref="AT19:AT20"/>
+    <mergeCell ref="AM19:AM20"/>
+    <mergeCell ref="AN19:AN20"/>
+    <mergeCell ref="AO19:AO20"/>
+    <mergeCell ref="AP19:AP20"/>
+    <mergeCell ref="AQ19:AQ20"/>
+    <mergeCell ref="AR19:AR20"/>
+    <mergeCell ref="AL19:AL20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AI19:AI20"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
     <mergeCell ref="AN1:AS1"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -6386,46 +6443,14 @@
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AH1"/>
     <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="AL19:AL20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AI19:AI20"/>
-    <mergeCell ref="AJ19:AJ20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="AS19:AS20"/>
-    <mergeCell ref="AT19:AT20"/>
-    <mergeCell ref="AM19:AM20"/>
-    <mergeCell ref="AN19:AN20"/>
-    <mergeCell ref="AO19:AO20"/>
-    <mergeCell ref="AP19:AP20"/>
-    <mergeCell ref="AQ19:AQ20"/>
-    <mergeCell ref="AR19:AR20"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1 B3:B18 B21:B50">
-    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="yesterday">
+  <conditionalFormatting sqref="B1 B3:B18 B21:B51">
+    <cfRule type="timePeriod" dxfId="2" priority="2" timePeriod="yesterday">
       <formula>FLOOR(B1,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="yesterday">
       <formula>FLOOR(B19,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6518,7 +6543,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F6AF4C4-21D6-4824-AE27-5EFF5C610D9E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80BD7EDB-C808-43C0-BDA0-6C40831CF54D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/BusinessRulesExcelMockup.xlsx
+++ b/BusinessRulesExcelMockup.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="302">
   <si>
     <t>R3</t>
   </si>
@@ -1624,6 +1624,9 @@
   </si>
   <si>
     <t>BR_0033</t>
+  </si>
+  <si>
+    <t>Test Test Test</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1739,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1800,6 +1803,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1958,7 +1967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2122,6 +2131,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2134,9 +2176,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2149,9 +2188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2176,49 +2212,13 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 118 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2657,10 +2657,13 @@
   <dimension ref="A1:AU51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -2676,22 +2679,22 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="69" t="s">
+      <c r="M1" s="76"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="69"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="69"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="78"/>
       <c r="X1" s="7" t="s">
         <v>3</v>
       </c>
@@ -2701,33 +2704,33 @@
       <c r="Z1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="71" t="s">
+      <c r="AA1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="69" t="s">
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="71" t="s">
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="55" t="s">
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="57"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="68"/>
       <c r="AT1" s="10" t="s">
         <v>10</v>
       </c>
@@ -3933,38 +3936,38 @@
       <c r="AU18" s="40"/>
     </row>
     <row r="19" spans="1:47" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64" t="s">
+      <c r="D19" s="72"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="73" t="s">
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="73" t="s">
+      <c r="M19" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="N19" s="75" t="s">
+      <c r="N19" s="65" t="s">
         <v>120</v>
       </c>
       <c r="O19" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P19" s="75" t="s">
+      <c r="P19" s="65" t="s">
         <v>121</v>
       </c>
       <c r="Q19" s="37" t="s">
@@ -3974,64 +3977,64 @@
         <v>123</v>
       </c>
       <c r="S19" s="37"/>
-      <c r="T19" s="73" t="s">
+      <c r="T19" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="U19" s="73" t="s">
+      <c r="U19" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
       <c r="Z19" s="29"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76" t="s">
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="73"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="73"/>
-      <c r="AI19" s="76">
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="61">
         <v>1</v>
       </c>
-      <c r="AJ19" s="76"/>
-      <c r="AK19" s="76"/>
-      <c r="AL19" s="76"/>
-      <c r="AM19" s="76"/>
-      <c r="AN19" s="77"/>
-      <c r="AO19" s="77"/>
-      <c r="AP19" s="77"/>
-      <c r="AQ19" s="77"/>
-      <c r="AR19" s="77"/>
-      <c r="AS19" s="77"/>
-      <c r="AT19" s="79" t="s">
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="61"/>
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="57"/>
+      <c r="AO19" s="57"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="57"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
+      <c r="AT19" s="59" t="s">
         <v>126</v>
       </c>
       <c r="AU19" s="42"/>
     </row>
     <row r="20" spans="1:47" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
       <c r="O20" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P20" s="59"/>
+      <c r="P20" s="60"/>
       <c r="Q20" s="37" t="s">
         <v>127</v>
       </c>
@@ -4039,33 +4042,33 @@
         <v>128</v>
       </c>
       <c r="S20" s="37"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
       <c r="Z20" s="29"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="78"/>
-      <c r="AO20" s="78"/>
-      <c r="AP20" s="78"/>
-      <c r="AQ20" s="78"/>
-      <c r="AR20" s="78"/>
-      <c r="AS20" s="78"/>
-      <c r="AT20" s="59"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="60"/>
+      <c r="AJ20" s="60"/>
+      <c r="AK20" s="60"/>
+      <c r="AL20" s="60"/>
+      <c r="AM20" s="60"/>
+      <c r="AN20" s="58"/>
+      <c r="AO20" s="58"/>
+      <c r="AP20" s="58"/>
+      <c r="AQ20" s="58"/>
+      <c r="AR20" s="58"/>
+      <c r="AS20" s="58"/>
+      <c r="AT20" s="60"/>
       <c r="AU20" s="43"/>
     </row>
     <row r="21" spans="1:47" ht="96" x14ac:dyDescent="0.25">
@@ -6386,47 +6389,18 @@
       <c r="A51" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="C51" s="81" t="s">
+      <c r="C51" s="56" t="s">
         <v>56</v>
+      </c>
+      <c r="D51" s="82" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="AS19:AS20"/>
-    <mergeCell ref="AT19:AT20"/>
-    <mergeCell ref="AM19:AM20"/>
-    <mergeCell ref="AN19:AN20"/>
-    <mergeCell ref="AO19:AO20"/>
-    <mergeCell ref="AP19:AP20"/>
-    <mergeCell ref="AQ19:AQ20"/>
-    <mergeCell ref="AR19:AR20"/>
-    <mergeCell ref="AL19:AL20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AI19:AI20"/>
-    <mergeCell ref="AJ19:AJ20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
     <mergeCell ref="AN1:AS1"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -6443,14 +6417,46 @@
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AH1"/>
     <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="AL19:AL20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AI19:AI20"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="AS19:AS20"/>
+    <mergeCell ref="AT19:AT20"/>
+    <mergeCell ref="AM19:AM20"/>
+    <mergeCell ref="AN19:AN20"/>
+    <mergeCell ref="AO19:AO20"/>
+    <mergeCell ref="AP19:AP20"/>
+    <mergeCell ref="AQ19:AQ20"/>
+    <mergeCell ref="AR19:AR20"/>
   </mergeCells>
   <conditionalFormatting sqref="B1 B3:B18 B21:B51">
-    <cfRule type="timePeriod" dxfId="2" priority="2" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="yesterday">
       <formula>FLOOR(B1,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="yesterday">
       <formula>FLOOR(B19,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6543,7 +6549,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80BD7EDB-C808-43C0-BDA0-6C40831CF54D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDA7FA35-1464-48FB-9642-4B0A24DC4F9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
